--- a/spark/experiments/results-sql-g2.1.csv/g2.1-3t-3n-2c-no-cache.xlsx
+++ b/spark/experiments/results-sql-g2.1.csv/g2.1-3t-3n-2c-no-cache.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.1.csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddya\OneDrive\Documents\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.1.csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B13798B830BA0B954081E4598A0238FC6FCBA5B6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A93F8BB0-0F27-46C0-A723-005F1BB85936}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="3900" yWindow="4140" windowWidth="24000" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="part-00000-10d115a5-5402-4343-8" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -180,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -691,24 +702,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,9 +735,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -738,7 +749,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -929,6 +939,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-022C-4752-A556-997B45444411}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1669,20 +1684,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1962,21 +1983,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2056,7 +2077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2130,7 +2151,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2204,7 +2225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2278,7 +2299,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2352,7 +2373,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2426,7 +2447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2500,7 +2521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2574,7 +2595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2648,7 +2669,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2722,7 +2743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2796,7 +2817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2870,7 +2891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2944,7 +2965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3018,7 +3039,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3092,7 +3113,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3166,7 +3187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3240,7 +3261,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3314,7 +3335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3388,7 +3409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3462,7 +3483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3536,7 +3557,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3610,7 +3631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3684,7 +3705,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3758,7 +3779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3832,7 +3853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3906,7 +3927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3980,7 +4001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4054,7 +4075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4128,7 +4149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -4202,7 +4223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -4276,7 +4297,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4350,7 +4371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -4424,7 +4445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4498,7 +4519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4572,7 +4593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -4646,7 +4667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -4720,7 +4741,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4794,7 +4815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4868,7 +4889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -4942,7 +4963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5016,7 +5037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -5040,7 +5061,7 @@
         <v>313931702.80000001</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -5060,7 +5081,7 @@
         <v>147554976.61999997</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -5084,7 +5105,7 @@
         <v>93325041.450000003</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -5104,7 +5125,7 @@
         <v>48451422.750000022</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -5132,7 +5153,7 @@
         <v>8145134885</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -5160,7 +5181,7 @@
         <v>135752.24808333334</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -5180,7 +5201,7 @@
         <v>-65.852011210000228</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -5192,7 +5213,7 @@
         <v>0.58078592439999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>

--- a/spark/experiments/results-sql-g2.1.csv/g2.1-3t-3n-2c-no-cache.xlsx
+++ b/spark/experiments/results-sql-g2.1.csv/g2.1-3t-3n-2c-no-cache.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddya\OneDrive\Documents\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.1.csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.1.csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B13798B830BA0B954081E4598A0238FC6FCBA5B6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A93F8BB0-0F27-46C0-A723-005F1BB85936}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="4140" windowWidth="24000" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="4140" windowWidth="24000" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="part-00000-10d115a5-5402-4343-8" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -187,11 +186,14 @@
   <si>
     <t>percentile95-warmup (s)</t>
   </si>
+  <si>
+    <t>deviation is too high</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -702,24 +704,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -735,9 +737,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -749,6 +751,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -939,7 +942,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-022C-4752-A556-997B45444411}"/>
             </c:ext>
@@ -953,11 +956,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-440210672"/>
-        <c:axId val="-440215024"/>
+        <c:axId val="1489236336"/>
+        <c:axId val="1489230352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-440210672"/>
+        <c:axId val="1489236336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,12 +1016,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-440215024"/>
+        <c:crossAx val="1489230352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-440215024"/>
+        <c:axId val="1489230352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-440210672"/>
+        <c:crossAx val="1489236336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1700,7 +1703,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,21 +1986,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3409,7 +3412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4001,7 +4004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -4223,7 +4226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -4297,7 +4300,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4519,7 +4522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4593,7 +4596,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -4667,7 +4670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -4741,7 +4744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4815,7 +4818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -4963,7 +4966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>313931702.80000001</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -5081,7 +5084,7 @@
         <v>147554976.61999997</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -5105,7 +5108,7 @@
         <v>93325041.450000003</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -5125,7 +5128,7 @@
         <v>48451422.750000022</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -5153,7 +5156,7 @@
         <v>8145134885</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>135752.24808333334</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -5201,7 +5204,7 @@
         <v>-65.852011210000228</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -5213,7 +5216,7 @@
         <v>0.58078592439999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -5223,6 +5226,11 @@
       </c>
       <c r="D50">
         <v>103.71409949250001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
